--- a/Porject Tracker.xlsx
+++ b/Porject Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/32a03389372ee1af/Desktop/MS Data Science/SEM I/DS 5100 - Essentials of Data Science/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datascience\customer sentimental analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D3E839E1-0DAB-4EB3-B152-B8D4B35253E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7379F02-F8EA-47DC-B44A-CD07A02056AD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71414065-80FD-49E4-A0AD-06D06E39B7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B1477BCB-0039-4DB5-8958-5962EA43B76A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1477BCB-0039-4DB5-8958-5962EA43B76A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,23 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Project Start</t>
   </si>
@@ -69,21 +58,12 @@
     <t>NOTES</t>
   </si>
   <si>
-    <t>Task 1</t>
-  </si>
-  <si>
     <t>HIGH</t>
   </si>
   <si>
-    <t>Task 2</t>
-  </si>
-  <si>
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>Task 3</t>
-  </si>
-  <si>
     <t>LOW</t>
   </si>
   <si>
@@ -100,6 +80,18 @@
   </si>
   <si>
     <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Project Plan, Team Roles and Dataset Identification</t>
+  </si>
+  <si>
+    <t>Report Draft 1</t>
+  </si>
+  <si>
+    <t>Report Draft 2</t>
+  </si>
+  <si>
+    <t>Final Report</t>
   </si>
 </sst>
 </file>
@@ -107,7 +99,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -224,7 +216,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
@@ -460,7 +452,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -974,26 +966,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEACDC62-B9E8-49DB-8B92-4FCA780EA38D}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1004,10 +996,10 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1009,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1046,9 +1038,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="14"/>
@@ -1062,13 +1054,13 @@
       <c r="H6" s="18"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="21">
         <v>43731</v>
@@ -1077,22 +1069,21 @@
         <v>43731</v>
       </c>
       <c r="F7" s="23">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G7" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" s="25"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="21">
         <v>43731</v>
@@ -1111,48 +1102,57 @@
       <c r="H8" s="25"/>
       <c r="I8" s="20"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D9" s="21">
-        <v>43731</v>
+        <v>43761</v>
       </c>
       <c r="E9" s="22">
         <f>Table137[[#This Row],[START]]+3</f>
-        <v>43734</v>
+        <v>43764</v>
       </c>
       <c r="F9" s="23">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="G9" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="25"/>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="23"/>
+      <c r="C10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="21">
+        <v>43761</v>
+      </c>
+      <c r="E10" s="22">
+        <f>Table137[[#This Row],[START]]+3</f>
+        <v>43764</v>
+      </c>
+      <c r="F10" s="23">
+        <v>1</v>
+      </c>
       <c r="G10" s="24">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="25"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
@@ -1166,7 +1166,7 @@
       <c r="H11" s="18"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="19"/>
       <c r="C12" s="20"/>
@@ -1180,7 +1180,7 @@
       <c r="H12" s="25"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
@@ -1194,7 +1194,7 @@
       <c r="H13" s="25"/>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
@@ -1208,7 +1208,7 @@
       <c r="H14" s="25"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
@@ -1222,9 +1222,9 @@
       <c r="H15" s="25"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="14"/>
@@ -1238,7 +1238,7 @@
       <c r="H16" s="18"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -1252,7 +1252,7 @@
       <c r="H17" s="25"/>
       <c r="I17" s="20"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -1266,7 +1266,7 @@
       <c r="H18" s="27"/>
       <c r="I18" s="20"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1280,7 +1280,7 @@
       <c r="H19" s="27"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -1294,9 +1294,9 @@
       <c r="H20" s="27"/>
       <c r="I20" s="20"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="14"/>
@@ -1310,7 +1310,7 @@
       <c r="H21" s="18"/>
       <c r="I21" s="14"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -1324,7 +1324,7 @@
       <c r="H22" s="27"/>
       <c r="I22" s="20"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1338,7 +1338,7 @@
       <c r="H23" s="27"/>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -1352,7 +1352,7 @@
       <c r="H24" s="27"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -1366,9 +1366,9 @@
       <c r="H25" s="27"/>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="14"/>
@@ -1382,7 +1382,7 @@
       <c r="H26" s="18"/>
       <c r="I26" s="14"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -1396,7 +1396,7 @@
       <c r="H27" s="25"/>
       <c r="I27" s="20"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1410,7 +1410,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="20"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
@@ -1424,7 +1424,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
@@ -1438,9 +1438,9 @@
       <c r="H30" s="27"/>
       <c r="I30" s="20"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="14"/>
@@ -1454,7 +1454,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="14"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -1468,7 +1468,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="20"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
@@ -1482,7 +1482,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="20"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="29"/>
       <c r="B34" s="29"/>
       <c r="C34" s="30"/>
@@ -1496,7 +1496,7 @@
       <c r="H34" s="32"/>
       <c r="I34" s="30"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="29"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
@@ -1510,7 +1510,7 @@
       <c r="H35" s="32"/>
       <c r="I35" s="30"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="29"/>
       <c r="B36" s="29"/>
       <c r="C36" s="30"/>
@@ -1634,7 +1634,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G36" xr:uid="{8F72E275-E2BF-422B-A1FE-D3E70E07347A}">
       <formula1>"1,0,-1"</formula1>
     </dataValidation>
@@ -1730,6 +1730,38 @@
           <xm:sqref>F21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E87E64F2-04E4-4AB4-B942-33AA6C18B3A8}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{22397744-19A5-42E6-8E49-0C9F1C84CA88}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:borderColor theme="0"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F31</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="15" id="{4EDE68BB-6A31-453C-A883-0AE2BD44EEBA}">
             <x14:iconSet iconSet="3Symbols2" showValue="0" custom="1">
               <x14:cfvo type="percent">
@@ -1823,38 +1855,6 @@
             </x14:iconSet>
           </x14:cfRule>
           <xm:sqref>G21</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E87E64F2-04E4-4AB4-B942-33AA6C18B3A8}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="0"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F26</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{22397744-19A5-42E6-8E49-0C9F1C84CA88}">
-            <x14:dataBar minLength="0" maxLength="100" border="1" gradient="0">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:borderColor theme="0"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>F31</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="iconSet" priority="4" id="{155F1D79-0FD8-433B-AC23-73A121D4F8DF}">
